--- a/docs/Source_github.xlsx
+++ b/docs/Source_github.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clone_Git" sheetId="1" r:id="rId1"/>
+    <sheet name="CommitSource" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>1. Download và cài đặt github</t>
   </si>
@@ -29,6 +30,12 @@
   </si>
   <si>
     <t>https://github.com</t>
+  </si>
+  <si>
+    <t>Hiện tại thì thực hiện commit trực tiếp lên "master"</t>
+  </si>
+  <si>
+    <t>Sau này anh sẽ hướng dẫn cách tạo branch, pull request, … Trước khi merge vào nhánh "master"</t>
   </si>
 </sst>
 </file>
@@ -206,6 +213,49 @@
         <a:xfrm>
           <a:off x="219075" y="12363450"/>
           <a:ext cx="5485715" cy="5714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>575166</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="666750"/>
+          <a:ext cx="8585691" cy="4705350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -506,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
@@ -544,4 +594,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/Source_github.xlsx
+++ b/docs/Source_github.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>1. Download và cài đặt github</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Sau này anh sẽ hướng dẫn cách tạo branch, pull request, … Trước khi merge vào nhánh "master"</t>
+  </si>
+  <si>
+    <t>Nhấn button "Sync" để đồng bộ lên server -&gt; người khác sẽ get source về được.</t>
   </si>
 </sst>
 </file>
@@ -256,6 +259,44 @@
         <a:xfrm>
           <a:off x="523875" y="666750"/>
           <a:ext cx="8585691" cy="4705350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533401" y="5724525"/>
+          <a:ext cx="8610599" cy="4715161"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -556,9 +597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:XFD62"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -598,11 +637,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A3"/>
+  <dimension ref="A2:A30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -619,6 +656,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
